--- a/results/pseudomonas_putida/Myristic_acid_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Myristic_acid_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc_e7.44-control_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ttdca_e3.19-myristic_acid_Presence" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc_e7.44-control" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_ttdca_e3.19-myristic_acid" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,287 +458,287 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.824094729154861e-77</v>
+        <v>2.809989398270006e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7006369426751592</v>
+        <v>0.875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7006369426751592</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.065824613963292e-45</v>
+        <v>3.000164946835013e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5968992248062015</v>
+        <v>0.5766423357664233</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5968992248062015</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.513124128114405e-30</v>
+        <v>4.595872108774546e-11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9166666666666666</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S_Transport__solvent_extrusion</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6.018497926450783e-10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8846153846153846</v>
+      </c>
+      <c r="E5" t="n">
         <v>26</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Unassigned</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5.689261469615948e-26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.523636907448156e-20</v>
+        <v>6.018497926450783e-10</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8275862068965517</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.121380810546163e-17</v>
+        <v>9.545936203722872e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7857142857142857</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7.515801120367136e-16</v>
+        <v>5.509143503662644e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7692307692307693</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.619587878420449e-15</v>
+        <v>1.326539238865965e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6.82353536497931e-12</v>
+        <v>1.758676020072307e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.75</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.595237426158875e-12</v>
+        <v>0.0001697075349607935</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.432258064516129</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6956521739130435</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.991028112473344e-10</v>
+        <v>0.0005838477186474548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4489795918367347</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4489795918367347</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ascorbate_and_Aldarate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>8.492144527328221e-10</v>
+        <v>0.0006812437663230002</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.908834570166575e-08</v>
+        <v>0.001195156251805667</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3.773726320549543e-07</v>
+        <v>0.001626971132971131</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5217391304347826</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.061982716985911e-06</v>
+        <v>0.002301265069590528</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3461538461538461</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3461538461538461</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -747,41 +747,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.094494998122305e-06</v>
+        <v>0.002444252948533173</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7272727272727273</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.72923562883639e-06</v>
+        <v>0.003309528367026679</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5555555555555556</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -789,1001 +789,1001 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.682528862369763e-06</v>
+        <v>0.003686361760685838</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7777777777777778</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.284119226434845e-06</v>
+        <v>0.007767433947359254</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.519251593169459e-05</v>
+        <v>0.007767433947359254</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5714285714285714</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.769359810131302e-05</v>
+        <v>0.007767433947359254</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4545454545454545</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4545454545454545</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5.243211930177819e-05</v>
+        <v>0.01280420384620929</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3793103448275862</v>
+        <v>0.475</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3793103448275862</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.454158040105812e-05</v>
+        <v>0.01367258881760705</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.454158040105812e-05</v>
+        <v>0.02619605174403513</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.454158040105812e-05</v>
+        <v>0.02619605174403513</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0001644455570852431</v>
+        <v>0.05062338195569153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="E27" t="n">
-        <v>0.7142857142857143</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0008329367640185834</v>
+        <v>0.06809358520344611</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5555555555555556</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0009276310233744324</v>
+        <v>0.0747506919836974</v>
       </c>
       <c r="D29" t="n">
-        <v>0.303030303030303</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="E29" t="n">
-        <v>0.303030303030303</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.0009611439279895506</v>
+        <v>0.08148190513406275</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.0009611439279895506</v>
+        <v>0.08827586561209995</v>
       </c>
       <c r="D31" t="n">
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.001204406922254411</v>
+        <v>0.1091993995971497</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.336405529953917</v>
       </c>
       <c r="E32" t="n">
-        <v>0.6666666666666666</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.001531112201288404</v>
+        <v>0.1451798875316147</v>
       </c>
       <c r="D33" t="n">
         <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.001830370842269167</v>
+        <v>0.2120660616069764</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2407407407407407</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.003560950970755027</v>
+        <v>0.216690561971631</v>
       </c>
       <c r="D35" t="n">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="E35" t="n">
-        <v>0.75</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.005311921224131559</v>
+        <v>0.2504196120915652</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3043478260869565</v>
+        <v>0.5</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3043478260869565</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.00793616854796337</v>
+        <v>0.3433890815623963</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.00793616854796337</v>
+        <v>0.4582415006811562</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3013245033112583</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4444444444444444</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.008249020289238244</v>
+        <v>0.5061894572440667</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0694336422602484</v>
+        <v>0.5740062992127029</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.07971070953570381</v>
+        <v>0.6367893022491927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.08693510121691694</v>
+        <v>0.6955908615269878</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2727272727272727</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.09884974838245865</v>
+        <v>0.6955908615269878</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.09884974838245865</v>
+        <v>0.739562986613697</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1119192474754447</v>
+        <v>0.739562986613697</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3333333333333333</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1284938781695592</v>
+        <v>0.7562922250685151</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.1467587095290111</v>
+        <v>0.7920190241093333</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2857142857142857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.1467587095290111</v>
+        <v>0.9010460015982614</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2857142857142857</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.259409214155541</v>
+        <v>0.9155964396128741</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2977367948085685</v>
+        <v>0.9155964396128741</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1818181818181818</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.3357365238352646</v>
+        <v>0.9407440757556136</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1666666666666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.3406174671415609</v>
+        <v>0.9407440757556136</v>
       </c>
       <c r="D52" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3406174671415609</v>
+        <v>0.9507766941935681</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.3730991078114739</v>
+        <v>0.9573871785547591</v>
       </c>
       <c r="D54" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1538461538461539</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.4058441565430253</v>
+        <v>0.9633507566669891</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.4095793981379715</v>
+        <v>0.9633507566669891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4095793981379715</v>
+        <v>0.9708066250947411</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1428571428571428</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.4095793981379715</v>
+        <v>0.979513596698298</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1428571428571428</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.4646291383565413</v>
+        <v>0.983521269416434</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E59" t="n">
-        <v>0.1666666666666667</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5176075431611298</v>
+        <v>0.9899158666254259</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E60" t="n">
-        <v>0.1428571428571428</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5328945015532491</v>
+        <v>0.9903607964968972</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1071428571428571</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1071428571428571</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.6790505287922636</v>
+        <v>0.9919262911169543</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08695652173913043</v>
+        <v>0.1842105263157895</v>
       </c>
       <c r="E62" t="n">
-        <v>0.08695652173913043</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6820947097179371</v>
+        <v>0.9950391304492585</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E63" t="n">
-        <v>0.09090909090909091</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.7018520365876635</v>
+        <v>0.9970766081376254</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="E64" t="n">
-        <v>0.08333333333333333</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.7135818175254529</v>
+        <v>0.9991600693412217</v>
       </c>
       <c r="D65" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.05</v>
       </c>
       <c r="E65" t="n">
-        <v>0.08333333333333333</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.723291394976859</v>
+        <v>0.999669710030296</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.7419553766682845</v>
+        <v>0.9999305418772826</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E67" t="n">
-        <v>0.07692307692307693</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7675227596321548</v>
+        <v>0.9999833667156302</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E68" t="n">
-        <v>0.07142857142857142</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.7964028337125382</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06896551724137931</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.06896551724137931</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.9181982032108751</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.04166666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9741306466231132</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02857142857142857</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.02857142857142857</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72">
@@ -1792,7 +1792,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,35 +1878,35 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
         <v>15</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
-        <v>1</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2030,16 +2030,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,16 +2068,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2087,35 +2087,35 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,7 +2125,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Histidine_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Intracellular source/sink</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Glutamate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,311 +2228,311 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S_Transport__Inner_Membrane</t>
+          <t>S_Fatty_Acid_Metabolism</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.265905239199501e-38</v>
+        <v>4.061482142308236e-17</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4961240310077519</v>
+        <v>0.5047619047619047</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4961240310077519</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.081178429617349e-24</v>
+        <v>9.459380454119965e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6530612244897959</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6530612244897959</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S_Transport__Outer_Membrane</t>
+          <t>S_tRNA_Charging</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.604110235568352e-17</v>
+        <v>4.603268444109774e-10</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6388888888888888</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Glycerophospholipid_Metabolism</t>
+          <t>S_Alginate_biosynthesis</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.271889907629863e-16</v>
+        <v>1.523917803536326e-09</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6896551724137931</v>
+        <v>0.7</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6896551724137931</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Transport__ABC_system</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.188994227080365e-16</v>
+        <v>1.153152086445134e-08</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2929936305732484</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2929936305732484</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Amines_and_Polyamines_Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.985583214561159e-15</v>
+        <v>8.300804312009454e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5</v>
+        <v>0.575</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S_Sulfur_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.046922656313773e-15</v>
+        <v>1.541957091360129e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S_tRNA_Charging</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.563863324528475e-12</v>
+        <v>4.697022921607697e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6153846153846154</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Porphyrin_and_Chlorophyll_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.024204538419171e-11</v>
+        <v>9.664543495114069e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5142857142857142</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5142857142857142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S_Iron_uptake_and_metabolism</t>
+          <t>S_Sulfur_Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.263255150948755e-10</v>
+        <v>0.00022899099969055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3846153846153846</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.0821301678256e-08</v>
+        <v>0.000312331706131395</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6111111111111112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Queuosine_biosynthesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.652632298470832e-08</v>
+        <v>0.0008658594500662328</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid_Metabolism</t>
+          <t>Aliphatic open-chain ketones metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.60880362627323e-08</v>
+        <v>0.0009037102227977864</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5217391304347826</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5217391304347826</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S_Xenobiotic_tolerance</t>
+          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.692608429020217e-07</v>
+        <v>0.00105600391719336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7272727272727273</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Peptidoglycan_Biosynthesis</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>6.490947164002501e-07</v>
+        <v>0.003679032007295167</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4137931034482759</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4137931034482759</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.558852546396551e-06</v>
+        <v>0.003679032007295167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3928571428571428</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3928571428571428</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2483,702 +2540,702 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.473383530038568e-05</v>
+        <v>0.009219483762248496</v>
       </c>
       <c r="D18" t="n">
         <v>0.6666666666666666</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6666666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>S_Transport__ABC_system</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.621073232295629e-05</v>
+        <v>0.01681292270938403</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.3284671532846715</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Transport__Inner_Membrane</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.621073232295629e-05</v>
+        <v>0.01844480749624818</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0.3087557603686636</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Phenylacetyl_CoA_Catabolom</t>
+          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6.881540619646597e-05</v>
+        <v>0.03571395779358115</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Heavy_Metal_Tolerance</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.0001519644163183656</v>
+        <v>0.03608459013678848</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3636363636363636</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3636363636363636</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S_Alginate_biosynthesis</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0002173523308243963</v>
+        <v>0.0607820604404137</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3478260869565217</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3478260869565217</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
+          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.0002295952773585536</v>
+        <v>0.06728999746643091</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E24" t="n">
-        <v>0.4615384615384616</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.0002702230660949684</v>
+        <v>0.07395205574423905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5555555555555556</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Xenobiotic_tolerance</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.0003755879243141149</v>
+        <v>0.1089379337348408</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4285714285714285</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S_Purine_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.0007129688043490759</v>
+        <v>0.1524227054121144</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2222222222222222</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__D_Amino_acids_Metabolism</t>
+          <t>S_Nucleotide_Salvage_Pathway</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.001047410586344223</v>
+        <v>0.1639943637524048</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5714285714285714</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Heavy_Metal_Tolerance</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.003323587369786868</v>
+        <v>0.2478845668996868</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3125</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4444444444444444</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Vitamin_B6_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.003323587369786868</v>
+        <v>0.2560355550278608</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.4444444444444444</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Propanoate_Metabolism</t>
+          <t>S_Glycerophospholipid_Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.007834896408101838</v>
+        <v>0.3279833137648691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.2645161290322581</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S_Lysine_Metabolism</t>
+          <t>S_Alternate_Carbon</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01191420098571131</v>
+        <v>0.4045485874244241</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2121212121212121</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2121212121212121</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
+          <t>S_Lysine_Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.01292551077442004</v>
+        <v>0.4289534299511447</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E33" t="n">
-        <v>0.4285714285714285</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Nicotinic_acid_pathway</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.01292551077442004</v>
+        <v>0.4582375449204564</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4285714285714285</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.01719335980066108</v>
+        <v>0.4582375449204564</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6666666666666666</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.02758954926238328</v>
+        <v>0.4670248088401968</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.03011351651125209</v>
+        <v>0.4670248088401968</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1666666666666667</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Nucleotide_Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.03262216219412396</v>
+        <v>0.5269409928462727</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.04824903576821477</v>
+        <v>0.6248780636522275</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2727272727272727</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Aliphatic open-chain ketones metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.07782171099928109</v>
+        <v>0.6248780636522275</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Pyrimidine_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.07911073675482883</v>
+        <v>0.6248780636522275</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1666666666666667</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Purine_Metabolism</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.08959665116616085</v>
+        <v>0.6485661219014345</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2142857142857143</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.09770372840448706</v>
+        <v>0.6577554152485712</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2857142857142857</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.09864465124398544</v>
+        <v>0.6781513344148034</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1739130434782609</v>
+        <v>0.25</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1739130434782609</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Phosphonate_and_phosphinate_metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.1797687561257714</v>
+        <v>0.6781513344148034</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E45" t="n">
-        <v>0.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
+          <t>S_Pyrimidine_Metabolism</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.1797687561257714</v>
+        <v>0.7219149618239925</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.2003392104375707</v>
+        <v>0.7576500468857277</v>
       </c>
       <c r="D47" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="E47" t="n">
-        <v>0.15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>S_Phosphonate_and_phosphinate_metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.2158034757961403</v>
+        <v>0.8585457111772008</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>0.3333333333333333</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.2386493378167115</v>
+        <v>0.8626340539082649</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1666666666666667</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.2640220463403501</v>
+        <v>0.8626340539082649</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1304347826086956</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1304347826086956</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__LPS_Biosynthesis</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.2684878268930288</v>
+        <v>0.8946996622753384</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1538461538461539</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__FeS_clusters_metabolism</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.2768639136634792</v>
+        <v>0.896599195373413</v>
       </c>
       <c r="D52" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E52" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Thiamine_Metabolism</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.2768639136634792</v>
+        <v>0.896599195373413</v>
       </c>
       <c r="D53" t="n">
-        <v>0.25</v>
+        <v>0.125</v>
       </c>
       <c r="E53" t="n">
-        <v>0.25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Nucleotide_Salvage_Pathway</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.2768639136634792</v>
+        <v>0.9161179459348728</v>
       </c>
       <c r="D54" t="n">
-        <v>0.25</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E54" t="n">
-        <v>0.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -3186,307 +3243,307 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.298303022847507</v>
+        <v>0.9161179459348728</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1428571428571428</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Dipeptide_Metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.3851198286503358</v>
+        <v>0.9414311187519872</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1666666666666667</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4772012509653185</v>
+        <v>0.9414311187519872</v>
       </c>
       <c r="D57" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.125</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
+          <t>S_Glyoxylate_and_dicarboxylate_metabolism</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.5179449259710811</v>
+        <v>0.9559277701956159</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E58" t="n">
-        <v>0.1111111111111111</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
+          <t>S_Iron_uptake_and_metabolism</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.5676704665549179</v>
+        <v>0.958519555081511</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1710526315789474</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08333333333333333</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Ubiquinone_biosynthesis</t>
+          <t>S_TCA_Cycle</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.5901725254843155</v>
+        <v>0.9742025867826709</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09090909090909091</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Nicotinamide_Biosynthesis</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5901725254843155</v>
+        <v>0.9750532370626289</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09090909090909091</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S_Fatty_Acid__Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.5902729586591978</v>
+        <v>0.9812342812770359</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="E62" t="n">
-        <v>0.08</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Valine__Leucine__and_Isoleucine_Metabolism</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.6221291789086432</v>
+        <v>0.9852974953195969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="E63" t="n">
-        <v>0.08333333333333333</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.6787759276326959</v>
+        <v>0.9858854480871905</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E64" t="n">
-        <v>0.07142857142857142</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_TCA_Cycle</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8971229339050397</v>
+        <v>0.9858854480871905</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03571428571428571</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E65" t="n">
-        <v>0.03571428571428571</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>S_Arginine_and_Proline_Metabolism</t>
+          <t>S_Fatty_Acid__Biosynthesis</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.9051694963362388</v>
+        <v>0.9994073909535587</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03448275862068965</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.03448275862068965</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Phenylalanine_Tyrosine_Tryptophan_Biosynthesis</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0.9995413885165272</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Arginine_and_Proline_Metabolism</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>0.9996555669617229</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Transport__Outer_Membrane</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.9997692730055161</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.1688741721854305</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3496,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3515,35 +3572,35 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>S_Butanoate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
         <v>6</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
-        <v>1</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3553,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3572,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3591,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3610,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3629,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3648,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3667,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3686,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3705,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3724,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3743,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3762,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3781,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3800,35 +3857,35 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3838,7 +3895,64 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>S_Formaldehyde_Metabolism</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>S_Glutamate_Metabolism</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/results/pseudomonas_putida/Myristic_acid_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/pseudomonas_putida/Myristic_acid_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -458,7 +458,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -515,11 +515,11 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S_Transport__solvent_extrusion</t>
+          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -534,11 +534,11 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__B_Ketoadipate_pathway</t>
+          <t>S_Transport__solvent_extrusion</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -553,7 +553,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -610,7 +610,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -648,7 +648,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -705,7 +705,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -743,7 +743,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -762,7 +762,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -800,11 +800,11 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S_Plant_growth_promoting</t>
+          <t>S_Nitrogen_Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -819,11 +819,11 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S_Nitrogen_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -838,11 +838,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Gallic_acid_Metabolism</t>
+          <t>S_Plant_growth_promoting</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -857,7 +857,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -895,11 +895,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -914,11 +914,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Hydroxy_proline_metabolism</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -933,7 +933,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1104,7 +1104,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1256,11 +1256,11 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1275,11 +1275,11 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1294,7 +1294,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1541,7 +1541,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1712,7 +1712,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1731,11 +1731,11 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>S_Glycolysis</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1764,16 +1764,16 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1783,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Oxidative_Phosphorylation</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1802,16 +1802,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -1840,16 +1840,16 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>7</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1859,16 +1859,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Intracellular demand</t>
+          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1878,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1954,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Ribose_Metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2016,7 +2016,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -2035,11 +2035,11 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Glycolysis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2068,54 +2068,54 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_PHAs_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>S_PHAs_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.02631578947368421</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>152</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Extracellular exchange</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2125,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>348</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Folate_Biosynthesis</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2144,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Intracellular source/sink</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Oxidative_Phosphorylation</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2836,11 +2836,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S_Pyruvate_Metabolism</t>
+          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2855,11 +2855,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Homogentisate_pathway</t>
+          <t>S_Pyruvate_Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2874,11 +2874,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
+          <t>S_Methionine_Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2893,11 +2893,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S_Methionine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Molybdopterin_Biosynthesis</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2912,7 +2912,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2931,11 +2931,11 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S_Cysteine_Metabolism</t>
+          <t>S_Alanine_and_Aspartate_Metabolism</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2950,11 +2950,11 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S_Alanine_and_Aspartate_Metabolism</t>
+          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2969,11 +2969,11 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Levulinate_Metabolism</t>
+          <t>S_Cysteine_Metabolism</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2988,7 +2988,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3121,11 +3121,11 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>S_Pentose_Phosphate_Pathway</t>
+          <t>S_Urea_cycleamino_group_metabolism</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -3140,11 +3140,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S_Urea_cycleamino_group_metabolism</t>
+          <t>S_Pentose_Phosphate_Pathway</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -3159,7 +3159,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -3216,11 +3216,11 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -3235,11 +3235,11 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Lipid_A_Biosynthesis</t>
+          <t>S_Cell_Envelope_Biosynthesis__O_antigen_Biosynthesis</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -3254,7 +3254,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -3406,11 +3406,11 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>S_Starch_and_Sucrose_Metabolism</t>
+          <t>S_Glycine__Serine_and_threonine_metabolism</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3425,11 +3425,11 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S_Glycine__Serine_and_threonine_metabolism</t>
+          <t>S_Starch_and_Sucrose_Metabolism</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3444,7 +3444,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -3520,7 +3520,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3539,11 +3539,11 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
+          <t>Intracellular source/sink</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3572,54 +3572,54 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S_Butanoate_Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.002873563218390805</v>
       </c>
       <c r="E73" t="n">
-        <v>6</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>S_Alternate_Carbon_and_Nitrogen_source__Ectoine_Metabolism</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
         <v>4</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
-        <v>1</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
-      </c>
-      <c r="E74" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S_Inorganic_polyphosphates_metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
+          <t>S_Gluconeogenesis</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3648,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
+          <t>S_Glutamate_Metabolism</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Intracellular source/sink</t>
+          <t>S_Aromatic_Compounds_Degradation__Toluene_Pathway</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3686,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Biotin_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Terpenoid_backbone_biosynthesis</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Biosynthesis_of_L_glycero_D_manno_heptose__Hep_</t>
+          <t>S_Alternate_Carbon__Butanediol_Metabolism</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -3724,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Intracellular demand</t>
+          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3743,16 +3743,16 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -3762,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>S_Alternate_Carbon__Fructose_Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3781,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -3800,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Pantothenate_and_CoA_Biosynthesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__One_Carbon_pool_by_folate</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3819,16 +3819,16 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
+          <t>S_Inorganic_polyphosphates_metabolism</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3838,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>S_Gluconeogenesis</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -3857,35 +3857,35 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Extracellular exchange</t>
+          <t>S_Histidine_Metabolism</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>0.002873563218390805</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>348</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>S_Histidine_Metabolism</t>
+          <t>S_Butanoate_Metabolism</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3895,16 +3895,16 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>S_Formaldehyde_Metabolism</t>
+          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis___Pyrroloquinoline_quinone_biosynthesis</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -3919,11 +3919,11 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>S_Cofactor_and_Prosthetic_Group_Biosynthesis__Riboflavin_Metabolism</t>
+          <t>S_Cell_Envelope_Biosynthesis__Cellulose_Metabolism</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -3933,16 +3933,16 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S_Glutamate_Metabolism</t>
+          <t>S_Formaldehyde_Metabolism</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
